--- a/files/02-calendario.xlsx
+++ b/files/02-calendario.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caayala/Dropbox (Maestral)/Documentos/Clases/UC - Web scrapping/web_scraping_soc4001/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caayala/Dropbox (Maestral)/Documentos/Clases/UC - Web scrapping/web_scraping_soc40XX/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628ADE27-0C0F-F247-976D-A29EF64819B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF64A74-E938-ED4F-A6FA-4C517E548835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="28040" windowHeight="17440" xr2:uid="{C0FA5A6A-09BB-DF4A-BC0A-ED4474CC6351}"/>
+    <workbookView xWindow="2240" yWindow="3420" windowWidth="29020" windowHeight="17440" xr2:uid="{C0FA5A6A-09BB-DF4A-BC0A-ED4474CC6351}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
   <si>
     <t>tipo</t>
   </si>
@@ -58,30 +58,12 @@
     <t>P</t>
   </si>
   <si>
-    <t>[RScript]</t>
-  </si>
-  <si>
-    <t>[RScript][Casen2020]</t>
-  </si>
-  <si>
-    <t>[Files]</t>
-  </si>
-  <si>
-    <t>[Slides] [.Rmd]</t>
-  </si>
-  <si>
-    <t>[RScript] [Data]</t>
-  </si>
-  <si>
     <t>fecha</t>
   </si>
   <si>
     <t>Clase</t>
   </si>
   <si>
-    <t>[Slides] [.Rmd](slides/class_1/class_1.Rmd)</t>
-  </si>
-  <si>
     <t>Introducción a Web Scraping</t>
   </si>
   <si>
@@ -119,13 +101,31 @@
   </si>
   <si>
     <t>Web Scraping avanzado</t>
+  </si>
+  <si>
+    <t>C1 (20%)</t>
+  </si>
+  <si>
+    <t>C2 (20%)</t>
+  </si>
+  <si>
+    <t>C3 (20%)</t>
+  </si>
+  <si>
+    <t>Propuesta TF</t>
+  </si>
+  <si>
+    <t>TF (40%)</t>
+  </si>
+  <si>
+    <t>[Slides](slides/class_1/class_1#1) [.Rmd](slides/class_1/class_1.Rmd)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -136,6 +136,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -479,17 +485,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D6AE771-24D7-9544-8CD7-00832CCAF6F4}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="62" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="71.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="79.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="39.1640625" bestFit="1" customWidth="1"/>
@@ -497,10 +503,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -509,7 +515,7 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -532,13 +538,13 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -552,13 +558,10 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -566,20 +569,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B12" si="0">B2+7</f>
         <v>44712</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -587,20 +586,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <f t="shared" si="0"/>
         <v>44714</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" t="s">
-        <v>8</v>
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -608,20 +606,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <f t="shared" si="0"/>
         <v>44719</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -629,20 +623,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <f t="shared" si="0"/>
         <v>44721</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" t="s">
-        <v>9</v>
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -650,20 +643,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <f t="shared" si="0"/>
         <v>44726</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -671,17 +660,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <f t="shared" si="0"/>
         <v>44728</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -689,20 +680,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <f t="shared" si="0"/>
         <v>44733</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -710,20 +697,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <f t="shared" si="0"/>
         <v>44735</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -731,23 +717,20 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <f t="shared" si="0"/>
         <v>44740</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/files/02-calendario.xlsx
+++ b/files/02-calendario.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caayala/Dropbox (Maestral)/Documentos/Clases/UC - Web scrapping/web_scraping_soc40XX/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF64A74-E938-ED4F-A6FA-4C517E548835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1155F32-AFB1-CA44-88CC-25AAA49A3154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="3420" windowWidth="29020" windowHeight="17440" xr2:uid="{C0FA5A6A-09BB-DF4A-BC0A-ED4474CC6351}"/>
+    <workbookView xWindow="-5780" yWindow="2300" windowWidth="29020" windowHeight="17440" xr2:uid="{C0FA5A6A-09BB-DF4A-BC0A-ED4474CC6351}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
   <si>
     <t>tipo</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>[Slides](slides/class_1/class_1#1) [.Rmd](slides/class_1/class_1.Rmd)</t>
+  </si>
+  <si>
+    <t>[Slides](slides/class_2/class_2#1) [.Rmd](slides/class_2/class_2.Rmd) [.R](slides/class_2/class_2_taller.R)</t>
   </si>
 </sst>
 </file>
@@ -487,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D6AE771-24D7-9544-8CD7-00832CCAF6F4}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -563,6 +566,9 @@
       <c r="E3" t="s">
         <v>17</v>
       </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">

--- a/files/02-calendario.xlsx
+++ b/files/02-calendario.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caayala/Dropbox (Maestral)/Documentos/Clases/UC - Web scrapping/web_scraping_soc40XX/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1155F32-AFB1-CA44-88CC-25AAA49A3154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEFBF13-F18E-7446-8369-76D9E1E73A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5780" yWindow="2300" windowWidth="29020" windowHeight="17440" xr2:uid="{C0FA5A6A-09BB-DF4A-BC0A-ED4474CC6351}"/>
+    <workbookView xWindow="0" yWindow="2300" windowWidth="29020" windowHeight="17440" xr2:uid="{C0FA5A6A-09BB-DF4A-BC0A-ED4474CC6351}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>tipo</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>[Slides](slides/class_2/class_2#1) [.Rmd](slides/class_2/class_2.Rmd) [.R](slides/class_2/class_2_taller.R)</t>
+  </si>
+  <si>
+    <t>[Slides](slides/class_3/class_3#1) [.Rmd](slides/class_3/class_3.Rmd)</t>
   </si>
 </sst>
 </file>
@@ -491,7 +494,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -586,6 +589,9 @@
       <c r="E4" t="s">
         <v>20</v>
       </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">

--- a/files/02-calendario.xlsx
+++ b/files/02-calendario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caayala/Dropbox (Maestral)/Documentos/Clases/UC - Web scrapping/web_scraping_soc40XX/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEFBF13-F18E-7446-8369-76D9E1E73A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA6FCFA-9561-FA43-A5B7-7C603B20196F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2300" windowWidth="29020" windowHeight="17440" xr2:uid="{C0FA5A6A-09BB-DF4A-BC0A-ED4474CC6351}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
   <si>
     <t>tipo</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>[Slides](slides/class_3/class_3#1) [.Rmd](slides/class_3/class_3.Rmd)</t>
+  </si>
+  <si>
+    <t>[Slides](slides/class_2/class_2#1) [.Rmd](slides/class_4/class_4.Rmd) [.R](slides/class_4/class_4_taller.R)</t>
   </si>
 </sst>
 </file>
@@ -494,7 +497,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -612,6 +615,9 @@
       <c r="F5" t="s">
         <v>22</v>
       </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">

--- a/files/02-calendario.xlsx
+++ b/files/02-calendario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caayala/Dropbox (Maestral)/Documentos/Clases/UC - Web scrapping/web_scraping_soc40XX/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA6FCFA-9561-FA43-A5B7-7C603B20196F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897584D6-6B62-F64C-A8DD-B358C49FEBCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2300" windowWidth="29020" windowHeight="17440" xr2:uid="{C0FA5A6A-09BB-DF4A-BC0A-ED4474CC6351}"/>
   </bookViews>
@@ -496,7 +496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D6AE771-24D7-9544-8CD7-00832CCAF6F4}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>

--- a/files/02-calendario.xlsx
+++ b/files/02-calendario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caayala/Dropbox (Maestral)/Documentos/Clases/UC - Web scrapping/web_scraping_soc40XX/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897584D6-6B62-F64C-A8DD-B358C49FEBCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF2AABC-C4DA-7C47-B337-639C610B2141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2300" windowWidth="29020" windowHeight="17440" xr2:uid="{C0FA5A6A-09BB-DF4A-BC0A-ED4474CC6351}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
   <si>
     <t>tipo</t>
   </si>
@@ -127,7 +127,10 @@
     <t>[Slides](slides/class_3/class_3#1) [.Rmd](slides/class_3/class_3.Rmd)</t>
   </si>
   <si>
-    <t>[Slides](slides/class_2/class_2#1) [.Rmd](slides/class_4/class_4.Rmd) [.R](slides/class_4/class_4_taller.R)</t>
+    <t>[Slides](slides/class_5/class_5#1) [.Rmd](slides/class_5/class_5.Rmd)</t>
+  </si>
+  <si>
+    <t>[Slides](slides/class_4/class_2#1) [.Rmd](slides/class_4/class_4.Rmd) [.R](slides/class_4/class_4_taller.R)</t>
   </si>
 </sst>
 </file>
@@ -496,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D6AE771-24D7-9544-8CD7-00832CCAF6F4}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -616,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -634,6 +637,9 @@
       </c>
       <c r="E6" t="s">
         <v>19</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">

--- a/files/02-calendario.xlsx
+++ b/files/02-calendario.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caayala/Dropbox (Maestral)/Documentos/Clases/UC - Web scrapping/web_scraping_soc40XX/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF2AABC-C4DA-7C47-B337-639C610B2141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6B0F6E-B153-CA49-9154-4DDCB5C5FA3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2300" windowWidth="29020" windowHeight="17440" xr2:uid="{C0FA5A6A-09BB-DF4A-BC0A-ED4474CC6351}"/>
   </bookViews>
@@ -130,7 +130,7 @@
     <t>[Slides](slides/class_5/class_5#1) [.Rmd](slides/class_5/class_5.Rmd)</t>
   </si>
   <si>
-    <t>[Slides](slides/class_4/class_2#1) [.Rmd](slides/class_4/class_4.Rmd) [.R](slides/class_4/class_4_taller.R)</t>
+    <t>[Slides](slides/class_4/class_4#1) [.Rmd](slides/class_4/class_4.Rmd) [.R](slides/class_4/class_4_taller.R)</t>
   </si>
 </sst>
 </file>
@@ -499,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D6AE771-24D7-9544-8CD7-00832CCAF6F4}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/files/02-calendario.xlsx
+++ b/files/02-calendario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caayala/Dropbox (Maestral)/Documentos/Clases/UC - Web scrapping/web_scraping_soc40XX/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6B0F6E-B153-CA49-9154-4DDCB5C5FA3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE9A8EB-7FD8-A848-81D1-3392E584C65E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2300" windowWidth="29020" windowHeight="17440" xr2:uid="{C0FA5A6A-09BB-DF4A-BC0A-ED4474CC6351}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
   <si>
     <t>tipo</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>[Slides](slides/class_4/class_4#1) [.Rmd](slides/class_4/class_4.Rmd) [.R](slides/class_4/class_4_taller.R)</t>
+  </si>
+  <si>
+    <t>[Slides](slides/class_6/class_6#1) [.Rmd](slides/class_6/class_6.Rmd) [.R](slides/class_6/class_6_taller.R)</t>
   </si>
 </sst>
 </file>
@@ -500,7 +503,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -661,6 +664,9 @@
       <c r="F7" t="s">
         <v>23</v>
       </c>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">

--- a/files/02-calendario.xlsx
+++ b/files/02-calendario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caayala/Dropbox (Maestral)/Documentos/Clases/UC - Web scrapping/web_scraping_soc40XX/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE9A8EB-7FD8-A848-81D1-3392E584C65E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49649DA2-75F7-824B-9FA8-A75F2DA69BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2300" windowWidth="29020" windowHeight="17440" xr2:uid="{C0FA5A6A-09BB-DF4A-BC0A-ED4474CC6351}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
   <si>
     <t>tipo</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>[Slides](slides/class_6/class_6#1) [.Rmd](slides/class_6/class_6.Rmd) [.R](slides/class_6/class_6_taller.R)</t>
+  </si>
+  <si>
+    <t>[Slides](slides/class_7/class_7#1) [.Rmd](slides/class_7/class_7.Rmd)</t>
   </si>
 </sst>
 </file>
@@ -503,7 +506,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -684,6 +687,9 @@
       <c r="E8" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="H8" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">

--- a/files/02-calendario.xlsx
+++ b/files/02-calendario.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caayala/Dropbox (Maestral)/Documentos/Clases/UC - Web scrapping/web_scraping_soc40XX/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49649DA2-75F7-824B-9FA8-A75F2DA69BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FF051D-3D5F-C243-A0A0-0F7FC4674039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2300" windowWidth="29020" windowHeight="17440" xr2:uid="{C0FA5A6A-09BB-DF4A-BC0A-ED4474CC6351}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
   <si>
     <t>tipo</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>[Slides](slides/class_7/class_7#1) [.Rmd](slides/class_7/class_7.Rmd)</t>
+  </si>
+  <si>
+    <t>[Slides](slides/class_8/class_8#1) [.Rmd](slides/class_8/class_8.Rmd)</t>
   </si>
 </sst>
 </file>
@@ -506,7 +509,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -710,13 +713,16 @@
       <c r="F9" t="s">
         <v>25</v>
       </c>
+      <c r="H9" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>44733</v>
+        <v>44735</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -733,7 +739,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>44735</v>
+        <v>44740</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
@@ -753,7 +759,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>44740</v>
+        <v>44742</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>

--- a/files/02-calendario.xlsx
+++ b/files/02-calendario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caayala/Dropbox (Maestral)/Documentos/Clases/UC - Web scrapping/web_scraping_soc40XX/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FF051D-3D5F-C243-A0A0-0F7FC4674039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551CF507-5984-A74C-84E8-B807778C60CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2300" windowWidth="29020" windowHeight="17440" xr2:uid="{C0FA5A6A-09BB-DF4A-BC0A-ED4474CC6351}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>tipo</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>[Slides](slides/class_8/class_8#1) [.Rmd](slides/class_8/class_8.Rmd)</t>
+  </si>
+  <si>
+    <t>[Slides](slides/class_9/class_9#1) [.Rmd](slides/class_9/class_9.Rmd)</t>
   </si>
 </sst>
 </file>
@@ -509,7 +512,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -733,6 +736,9 @@
       <c r="E10" t="s">
         <v>15</v>
       </c>
+      <c r="H10" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">

--- a/files/02-calendario.xlsx
+++ b/files/02-calendario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caayala/Dropbox (Maestral)/Documentos/Clases/UC - Web scrapping/web_scraping_soc40XX/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551CF507-5984-A74C-84E8-B807778C60CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A7FFEA-6D75-DB4A-A616-791EF4E4E8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2300" windowWidth="29020" windowHeight="17440" xr2:uid="{C0FA5A6A-09BB-DF4A-BC0A-ED4474CC6351}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t>tipo</t>
   </si>
@@ -46,9 +46,6 @@
     <t>entrega</t>
   </si>
   <si>
-    <t>link/grabación zoom</t>
-  </si>
-  <si>
     <t>material</t>
   </si>
   <si>
@@ -85,9 +82,6 @@
     <t>[`rtweet`](https://docs.ropensci.org/rtweet/) [`spotifyr`](https://www.rcharlie.com/spotifyr/)</t>
   </si>
   <si>
-    <t>Recuento</t>
-  </si>
-  <si>
     <t>[`purrr`](https://purrr.tidyverse.org) [`stringr`](https://stringr.tidyverse.org)</t>
   </si>
   <si>
@@ -143,6 +137,21 @@
   </si>
   <si>
     <t>[Slides](slides/class_9/class_9#1) [.Rmd](slides/class_9/class_9.Rmd)</t>
+  </si>
+  <si>
+    <t>[Slides](slides/class_10/class_10#1) [.Rmd](slides/class_10/class_10.Rmd)</t>
+  </si>
+  <si>
+    <t>Uso headless browser: chromote</t>
+  </si>
+  <si>
+    <t>[`chormote`](https://rstudio.github.io/chromote/)</t>
+  </si>
+  <si>
+    <t>Entrega trabajo final</t>
+  </si>
+  <si>
+    <t>*Feriado*</t>
   </si>
 </sst>
 </file>
@@ -509,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D6AE771-24D7-9544-8CD7-00832CCAF6F4}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -521,16 +530,15 @@
     <col min="4" max="4" width="62" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="79.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -539,7 +547,7 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -547,11 +555,8 @@
       <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -559,19 +564,19 @@
         <v>44705</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -579,19 +584,19 @@
         <v>44707</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -599,19 +604,19 @@
         <v>44712</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -619,22 +624,22 @@
         <v>44714</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>20</v>
       </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -642,19 +647,19 @@
         <v>44719</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -662,22 +667,22 @@
         <v>44721</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
         <v>21</v>
       </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -685,19 +690,19 @@
         <v>44726</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -705,76 +710,82 @@
         <v>44728</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="1">
+        <v>44733</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>44735</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
         <v>14</v>
       </c>
-      <c r="F9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="G11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>44740</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>44735</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>44740</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="1">
+        <v>44747</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <v>44742</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
